--- a/biology/Zoologie/Blissidae/Blissidae.xlsx
+++ b/biology/Zoologie/Blissidae/Blissidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blissidae sont une famille d'insectes hétéroptères (punaises), de la super-famille des Lygaeoidea (Pentatomomorpha).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Blissidae ressemblent à des Lygaeidae, mais ils s'en distinguent par les stigmates abdominaux du 7e segment sur la face ventrale, le tiers antérieur du pronotum non marqué d'un sillon transversal, et le scutellum non marqué par une carène en forme de croix. Comme les Lygaeidae, ils ont les ocelles non cerclées d'un sillon, et les stigmates abdominaux des segments 2 à 6 sur la face dorsale. Les tergites (segments dorsaux) abdominaux ont des sutures droites, non incurvées, et la membrane de l'hémélytre a 5 nervures (comme chez tous les Lygaeoidea). Ils ont des hémélytres peu ou pas ponctuées. Le corps, de forme variable, peut être allongé et mince, ou court et trapu. Il est souvent recouvert d'une couche pruineuse formée de minuscules aiguillons. Leur taille est très petite à moyenne, entre 2,5 mm et 15 mm de long. Plusieurs espèces montrent un polymorphisme alaire, avec des formes microptères et macroptères[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Blissidae ressemblent à des Lygaeidae, mais ils s'en distinguent par les stigmates abdominaux du 7e segment sur la face ventrale, le tiers antérieur du pronotum non marqué d'un sillon transversal, et le scutellum non marqué par une carène en forme de croix. Comme les Lygaeidae, ils ont les ocelles non cerclées d'un sillon, et les stigmates abdominaux des segments 2 à 6 sur la face dorsale. Les tergites (segments dorsaux) abdominaux ont des sutures droites, non incurvées, et la membrane de l'hémélytre a 5 nervures (comme chez tous les Lygaeoidea). Ils ont des hémélytres peu ou pas ponctuées. Le corps, de forme variable, peut être allongé et mince, ou court et trapu. Il est souvent recouvert d'une couche pruineuse formée de minuscules aiguillons. Leur taille est très petite à moyenne, entre 2,5 mm et 15 mm de long. Plusieurs espèces montrent un polymorphisme alaire, avec des formes microptères et macroptères,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est cosmopolite, avec sa plus grande biodiversité sous les tropiques[4], et des centres d'endémisme en Afrique du Sud, à Madagascar, dans la région indomalaise, et dans les zones tropicales de l'Amérique centrale et de l'Amérique du Sud[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est cosmopolite, avec sa plus grande biodiversité sous les tropiques, et des centres d'endémisme en Afrique du Sud, à Madagascar, dans la région indomalaise, et dans les zones tropicales de l'Amérique centrale et de l'Amérique du Sud. 
 </t>
         </is>
       </c>
@@ -573,13 +589,50 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces punaises sont phytophages sur les Monocotylédones, surtout sur des Poaceae, mais également des Cyperaceae, des Restionaceae et des Zingiberaceae. Ils se distinguent des autres Lygaeoidea par un régime uniquement à base de sève, et non de graines. Ils vivent souvent dans les gaines des feuilles de ces plantes (laminaphiles), ce qui les rend difficiles à voir. Spalacocoris sulcifer creuse des tunnels dans les tiges de Zingiberaceae, une pratique toutefois inhabituelle[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises sont phytophages sur les Monocotylédones, surtout sur des Poaceae, mais également des Cyperaceae, des Restionaceae et des Zingiberaceae. Ils se distinguent des autres Lygaeoidea par un régime uniquement à base de sève, et non de graines. Ils vivent souvent dans les gaines des feuilles de ces plantes (laminaphiles), ce qui les rend difficiles à voir. Spalacocoris sulcifer creuse des tunnels dans les tiges de Zingiberaceae, une pratique toutefois inhabituelle,.
 Elles se rencontrent souvent en colonies.
-Impact sur les cultures
-L'espèce Blissus leucopterus a occasionné des ravages considérables aux cultures de maïs et d'autres céréales aux États-Unis dès les années 1750. Il s'agit d'une espèce native, qui semble être passé d'un mode aptère à la capacité de voler et de migrer vers les champs chaque année. Dans les années 1930, la lutte contre ce chinch bug a pris une importance considérable. Aujourd'hui, les dégâts apparaissent plutôt en période de sécheresse. Toutefois, une sous-espèce de l'Est, Blissus leucopterus hirtus et une espèce voisine, Blissus insularis s'en prennent aujourd'hui aux pelouses engazonnées, où ils peuvent occasionner des zones où le gazon meurt, avec de fortes densités d'insectes[4],[6],[7]. 
-En Afrique du Sud, Macchiademus diplopterus s'en prend aux cultures de blé et d'avoine, auxquelles il semble s'être adapté à partir de plantes indigènes. Cavelerius saccharivorus, C. excavatus et C. sweeti s'en prennent aux cultures de canne à sucre[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blissidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blissidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Impact sur les cultures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Blissus leucopterus a occasionné des ravages considérables aux cultures de maïs et d'autres céréales aux États-Unis dès les années 1750. Il s'agit d'une espèce native, qui semble être passé d'un mode aptère à la capacité de voler et de migrer vers les champs chaque année. Dans les années 1930, la lutte contre ce chinch bug a pris une importance considérable. Aujourd'hui, les dégâts apparaissent plutôt en période de sécheresse. Toutefois, une sous-espèce de l'Est, Blissus leucopterus hirtus et une espèce voisine, Blissus insularis s'en prennent aujourd'hui aux pelouses engazonnées, où ils peuvent occasionner des zones où le gazon meurt, avec de fortes densités d'insectes. 
+En Afrique du Sud, Macchiademus diplopterus s'en prend aux cultures de blé et d'avoine, auxquelles il semble s'être adapté à partir de plantes indigènes. Cavelerius saccharivorus, C. excavatus et C. sweeti s'en prennent aux cultures de canne à sucre.
 			Blissus leucopterus, Georgie (États-Unis).
 			Iphicrates malayensis, Brunei.
 			Ischnodemus sabuleti, groupe, Cologne (Allemagne).
@@ -588,39 +641,111 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Blissidae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Blissidae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le taxon a été créé par Carl Stål en 1862 au niveau familial, mais est resté longtemps intégré comme sous-famille des Lygaeidae. J. A. Slater a publié en 1979 une importante monographie du groupe (en tant que sous-famille), sans introduire de divisions supragénériques[8]. Ce chercheur a décrit plus de la moitié des genres connus, une trentaine sur les plus de cinquante que compte la famille. Le genre Slaterellus, sur lequel une sous-famille distincte avait été formée par Drake et Davis, les Slaterellinae, a été synonymisé avec les Blissidae[9]. Thomas J. Henry, dans son approche de la phylogénie des Lygaeoidea, élève les Blissidae au rang de famille en 1997[10],[4]. 
-Un catalogue en ligne, avec répartitions, est disponible sur le site Lygaoidea Species File[11]. La famille comprend aujourd'hui environ 55 genres et près de 440 espèces.
-Il semble que les genres très riches en espèces (Blissus Burmeister, Dimorphopterus Stål, Ischnodemus Fieber, Macropes Motschulsky et Patritius Distant), puissent être paraphylétiques et nécessiter une révision[5].
-Fossiles
-Deux fossiles de Blissidae ont été découverts, dont l'un dans un genre éteint, datant de l'Éocène (Yprésien, −56 à −48 millions d'années) et trouvé dans de l'ambre de l'Oise (France)[12], et un autre en Allemagne, datant du Chattien (−28 à −23 millions d'années), dans le genre actuel Ischnodemus[13].
-Liste des sous-familles, tribus, et genres
-Selon Lygaeoidea Species File, consulté le 27 octobre 2022[11] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon a été créé par Carl Stål en 1862 au niveau familial, mais est resté longtemps intégré comme sous-famille des Lygaeidae. J. A. Slater a publié en 1979 une importante monographie du groupe (en tant que sous-famille), sans introduire de divisions supragénériques. Ce chercheur a décrit plus de la moitié des genres connus, une trentaine sur les plus de cinquante que compte la famille. Le genre Slaterellus, sur lequel une sous-famille distincte avait été formée par Drake et Davis, les Slaterellinae, a été synonymisé avec les Blissidae. Thomas J. Henry, dans son approche de la phylogénie des Lygaeoidea, élève les Blissidae au rang de famille en 1997,. 
+Un catalogue en ligne, avec répartitions, est disponible sur le site Lygaoidea Species File. La famille comprend aujourd'hui environ 55 genres et près de 440 espèces.
+Il semble que les genres très riches en espèces (Blissus Burmeister, Dimorphopterus Stål, Ischnodemus Fieber, Macropes Motschulsky et Patritius Distant), puissent être paraphylétiques et nécessiter une révision.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blissidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blissidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux fossiles de Blissidae ont été découverts, dont l'un dans un genre éteint, datant de l'Éocène (Yprésien, −56 à −48 millions d'années) et trouvé dans de l'ambre de l'Oise (France), et un autre en Allemagne, datant du Chattien (−28 à −23 millions d'années), dans le genre actuel Ischnodemus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blissidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blissidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles, tribus, et genres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Lygaeoidea Species File, consulté le 27 octobre 2022 :
 genre Aradacrates Slater &amp; Wilcox, 1969
 genre Aradademus Slater, 1967
 genre Archaeodemus Slater, 1986
